--- a/docs/presentations/ML_Usecase_Discovery_Worksheet.xlsx
+++ b/docs/presentations/ML_Usecase_Discovery_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttaakkaa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Shared With Me\01_DevRel\05_Material\ML\MLEnablement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D956415-2A2F-49B6-BC2E-BCF684794166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8FBEAC-CB1B-43CE-9E6A-16BFB35755E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10332" xr2:uid="{DB7D23EF-B9F1-4082-8530-D84C06DE4BEC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB7D23EF-B9F1-4082-8530-D84C06DE4BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="ML Usecase Discovery Worksheet" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
-  <si>
-    <t>ML Usecase Discovery Worksheet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -304,17 +310,6 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MLのユースケース
-(入力データ→ML→出力データ)</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -715,16 +710,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>↓↓②アイデアソンで特定したMLのユースケースを記入↓↓</t>
-    <rPh sb="10" eb="12">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>↓↓③アイデアソン後実現に向けた課題を記入↓↓</t>
     <rPh sb="9" eb="10">
       <t>ゴ</t>
@@ -769,6 +754,38 @@
     <rPh sb="54" eb="56">
       <t>タイヘン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイデアソンのボードへのリンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://miro.com/app/board/uXjVOq7OXDo=/</t>
+  </si>
+  <si>
+    <t>MLのユースケース
+(入力データ→ML→出力データ)
+※MLのタスクで語れているか確認</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓↓②アイデアソンで特定したMLのユースケースを記入↓↓</t>
+  </si>
+  <si>
+    <t>ML Usecase Discovery Worksheet</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -854,7 +871,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,6 +911,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,9 +1085,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1098,12 +1118,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1149,13 +1163,28 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,15 +1216,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>332510</xdr:colOff>
+      <xdr:colOff>2847110</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>27710</xdr:rowOff>
+      <xdr:rowOff>122960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142928</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>166256</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4981628</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>13856</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1225,8 +1254,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="30673965" y="1302328"/>
-          <a:ext cx="2124127" cy="1413164"/>
+          <a:off x="33174710" y="1418360"/>
+          <a:ext cx="2134518" cy="1433946"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,13 +1277,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>969820</xdr:colOff>
+      <xdr:colOff>1522270</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>96983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1411490</xdr:colOff>
+      <xdr:colOff>1963940</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>193965</xdr:rowOff>
     </xdr:to>
@@ -1286,8 +1315,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15614075" y="1371601"/>
-          <a:ext cx="2062651" cy="1371600"/>
+          <a:off x="16152670" y="1392383"/>
+          <a:ext cx="2060920" cy="1392382"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1667,13 +1696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F87407-972F-4646-AFB6-9BCE07A465AB}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="3" width="12.796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.09765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.296875" style="2" customWidth="1"/>
@@ -1687,82 +1716,83 @@
     <col min="13" max="13" width="31" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.09765625" style="2" customWidth="1"/>
     <col min="15" max="15" width="33.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="30.3984375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="71.69921875" style="2" customWidth="1"/>
     <col min="17" max="17" width="98" style="2" customWidth="1"/>
-    <col min="18" max="18" width="53.296875" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="2"/>
+    <col min="18" max="19" width="53.296875" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="34.799999999999997" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-    </row>
-    <row r="2" spans="1:18" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="34.799999999999997" x14ac:dyDescent="0.45">
+      <c r="A1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:18" s="38" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:19" s="35" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="35" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="1:19" s="35" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="36"/>
+    </row>
+    <row r="6" spans="1:19" s="35" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="38" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="1:18" s="38" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="39"/>
-    </row>
-    <row r="6" spans="1:18" s="38" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="38" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="37" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="S6" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1781,8 +1811,9 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" s="9" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1794,113 +1825,118 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="45"/>
+      <c r="N8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="R8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" spans="1:19" s="9" customFormat="1" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" s="23"/>
-    </row>
-    <row r="10" spans="1:18" s="9" customFormat="1" ht="76.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" s="26"/>
-    </row>
-    <row r="11" spans="1:18" ht="139.19999999999999" x14ac:dyDescent="0.45">
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" ht="139.19999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -1909,56 +1945,59 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="J11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="P11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="41">
+    </row>
+    <row r="12" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="38">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="str">
@@ -1981,9 +2020,10 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="41">
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="38">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="str">
@@ -2006,9 +2046,10 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="41">
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="38">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="str">
@@ -2031,8 +2072,9 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -2056,8 +2098,9 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -2081,8 +2124,9 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>6</v>
       </c>
@@ -2106,8 +2150,9 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>7</v>
       </c>
@@ -2131,8 +2176,9 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>8</v>
       </c>
@@ -2156,8 +2202,9 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>9</v>
       </c>
@@ -2181,8 +2228,9 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>10</v>
       </c>
@@ -2206,8 +2254,9 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>11</v>
       </c>
@@ -2231,8 +2280,9 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>12</v>
       </c>
@@ -2256,8 +2306,9 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>13</v>
       </c>
@@ -2281,8 +2332,9 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>14</v>
       </c>
@@ -2306,8 +2358,9 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>15</v>
       </c>
@@ -2331,8 +2384,9 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>16</v>
       </c>
@@ -2356,8 +2410,9 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>17</v>
       </c>
@@ -2381,8 +2436,9 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>18</v>
       </c>
@@ -2406,8 +2462,9 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>19</v>
       </c>
@@ -2431,8 +2488,9 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>20</v>
       </c>
@@ -2456,14 +2514,16 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="M6:P6"/>
+    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2484,7 +2544,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -2492,7 +2552,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2500,7 +2560,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>

--- a/docs/presentations/ML_Usecase_Discovery_Worksheet.xlsx
+++ b/docs/presentations/ML_Usecase_Discovery_Worksheet.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Shared With Me\01_DevRel\05_Material\ML\MLEnablement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8FBEAC-CB1B-43CE-9E6A-16BFB35755E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEDD324-550A-4D69-B8B3-EA194FED1809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB7D23EF-B9F1-4082-8530-D84C06DE4BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="ML Usecase Discovery Worksheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,17 +33,32 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>No</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>個人事業主</t>
-    <rPh sb="0" eb="5">
-      <t>コジンジギョウヌシ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -55,43 +69,6 @@
     <t>ターゲットユーザーの課題</t>
     <rPh sb="10" eb="12">
       <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>確定申告をするのに2~3日かかる。内訳として、入出金データの収集に0.5~1日、事業経費か否かの仕分けと確認に1~2日かかっている。</t>
-    <rPh sb="0" eb="4">
-      <t>カクテイシンコク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ウチワケ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ニュウシュッキン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュウシュウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>ジギョウケイヒ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>イナ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シワ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -107,100 +84,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>確定申告をするには当該年度の経費を一覧化し事業経費とできるか否かを仕分けて所得を計算する必要がある。確定申告の時期にまとめて行うことが多く、入出金データの紛失や経費の内容について記憶があいまいになるため申告に時間がかかる。入出金の都度経費か否か記録され、確定申告時にはすぐに出せる状態になっていることが好ましい。</t>
-    <rPh sb="0" eb="4">
-      <t>カクテイシンコク</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>トウガイネンド</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケイヒ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>イチランカ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>ジギョウケイヒ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>イナ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シワ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ショトク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="54">
-      <t>カクテイシンコク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ジキ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="70" eb="73">
-      <t>ニュウシュッキン</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>フンシツ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ケイヒ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>キオク</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>シンコク</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="111" eb="114">
-      <t>ニュウシュッキン</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ツド</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ケイヒ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>イナ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="127" eb="132">
-      <t>カクテイシンコクジ</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>コノ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>緊急度の理由</t>
     <rPh sb="0" eb="2">
       <t>キンキュウ</t>
@@ -212,20 +95,6 @@
       <t>リユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中</t>
-    <rPh sb="0" eb="1">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>低</t>
-    <rPh sb="0" eb="1">
-      <t>テイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ユーザーにとっての
@@ -248,29 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1年に1回しかなく、終わると忘れてしまう。</t>
-    <rPh sb="1" eb="2">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ワス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>高</t>
-    <rPh sb="0" eb="1">
-      <t>コウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザーにとっての
 重要度: (高・中・低)</t>
     <rPh sb="10" eb="11">
@@ -292,56 +138,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>誤って申告していた場合、税務署から連絡が来る</t>
-    <rPh sb="0" eb="1">
-      <t>アヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンコク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ゼイムショ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入出金データを入力とし、機械学習により事業経費か否かを分類する</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウシュッキン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キカイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケイヒ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>イナ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MLの価値の理由</t>
     <rPh sb="3" eb="5">
       <t>カチ</t>
@@ -352,54 +148,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">  確定申告する個人事業主の数
-    x 1人当たり入出金明細数
-    x 1明細当たり事業経費判定効果(削減時間等)
-で計算でき、ユーザー数が増えるほどスケールするため。</t>
-    <rPh sb="64" eb="66">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データに正確な仕訳データを作る必要がある。ユーザーの入力は必ずしも正しくない。</t>
-    <rPh sb="4" eb="6">
-      <t>セイカク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シワケ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>タダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>例です</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -486,16 +237,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>正確な経費データがないこと。</t>
-    <rPh sb="0" eb="2">
-      <t>セイカク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MLの適用可能性: (〇・×・△)
 △: 適用可能に見えるが、MLに知見のある人の判断がほしい場合</t>
     <rPh sb="3" eb="8">
@@ -542,13 +283,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>確定申告</t>
-    <rPh sb="0" eb="4">
-      <t>カクテイシンコク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Work3: 課題解決シナリオ</t>
     <rPh sb="7" eb="9">
       <t>カダイ</t>
@@ -569,36 +303,6 @@
     <rPh sb="15" eb="17">
       <t>シュダン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>①入出金明細の取得を自動化し、
-②取得した明細の事情経費判断を自動化する</t>
-    <rPh sb="1" eb="6">
-      <t>ニュウシュッキンメイサイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ジドウカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="24" eb="30">
-      <t>ジジョウケイヒハンダン</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ジドウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -787,6 +491,52 @@
   <si>
     <t>ML Usecase Discovery Worksheet</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目覚まし時計</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>目覚まし時計のセットを忘れる</t>
+  </si>
+  <si>
+    <t>朝起きなければならない予定があるにもかかわらず、前日に目覚まし時計をセットするのを忘れてしまう。</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>来年から社会人になるのに、いまだに月4回程度1限の授業に遅刻している。</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>すでに単位は取得済みのため、授業に遅刻しても大きな問題はない。しかし、このまま放置していては社会人になったとき問題がある。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・目覚ましをセットしたほうがよさそうな曜日・時間に通知を行う。
+例: 毎週火曜日に目覚ましをセットしていることが多ければ(翌日に授業があるなど)、火曜日の夜x時までにセットされていなければ通知を行う。
+・翌日の朝に予定がある場合、睡眠時間から逆算し提案を行う。
+</t>
+  </si>
+  <si>
+    <t>△</t>
+  </si>
+  <si>
+    <t>各曜日・時間に対し、目覚まし時計がセットされているか否かの分類を行い、可能性が高ければ通知を行う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルールで実装した場合と、MLで実装した場合とでユーザーの負担と価値がどのように変わるか検証する必要がある。
+</t>
+  </si>
+  <si>
+    <t>機械学習によりアラームの設定が自動化されユーザーの体験が上がるならば、ML拡大の余地がある</t>
+  </si>
+  <si>
+    <t>例です</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,6 +901,21 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1163,6 +928,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,21 +939,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1724,7 +1477,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="34.799999999999997" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -1752,12 +1505,12 @@
     </row>
     <row r="3" spans="1:19" s="35" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A3" s="35" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="35" customFormat="1" ht="26.4" x14ac:dyDescent="0.45">
       <c r="A4" s="36" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q4"/>
     </row>
@@ -1765,31 +1518,31 @@
       <c r="A5" s="36"/>
     </row>
     <row r="6" spans="1:19" s="35" customFormat="1" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="A6" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
       <c r="Q6" s="37" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="S6" s="35" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.2" x14ac:dyDescent="0.45">
@@ -1825,25 +1578,25 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="45"/>
+        <v>19</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="51"/>
       <c r="N8" s="17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="20" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="9" customFormat="1" ht="38.4" x14ac:dyDescent="0.45">
@@ -1851,38 +1604,38 @@
         <v>0</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="39" t="s">
+      <c r="N9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
       <c r="Q9" s="23" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
@@ -1892,116 +1645,114 @@
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="G10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>10</v>
-      </c>
       <c r="H10" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>14</v>
-      </c>
       <c r="K10" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="49" t="s">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="O10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="29" t="s">
-        <v>29</v>
       </c>
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
     </row>
-    <row r="11" spans="1:19" ht="139.19999999999999" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" ht="83.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0</v>
       </c>
-      <c r="B11" s="5">
-        <f>IF(AND(G11&lt;&gt;"", I11&lt;&gt;"", N11&lt;&gt;""), VLOOKUP(G11,Data!A:B,2,FALSE)+VLOOKUP(I11,Data!A:B,2,FALSE)+VLOOKUP(N11,Data!A:B,2,FALSE),"")</f>
-        <v>7</v>
+      <c r="B11" s="5" cm="1">
+        <f t="array" ref="B11">IF(AND(G11&lt;&gt;"", I11&lt;&gt;""),_xlfn.SWITCH(G11,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I11,"低",1,"中",2,"高", 3),"")</f>
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="S11" s="6" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="38">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="str">
-        <f>IF(AND(G12&lt;&gt;"", I12&lt;&gt;"", N12&lt;&gt;""), VLOOKUP(G12,Data!A:B,2,FALSE)+VLOOKUP(I12,Data!A:B,2,FALSE)+VLOOKUP(N12,Data!A:B,2,FALSE),"")</f>
+      <c r="B12" s="43" t="str" cm="1">
+        <f t="array" ref="B12">IF(AND(G12&lt;&gt;"", I12&lt;&gt;""),_xlfn.SWITCH(G12,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I12,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C12" s="3"/>
@@ -2026,8 +1777,8 @@
       <c r="A13" s="38">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="str">
-        <f>IF(AND(G13&lt;&gt;"", I13&lt;&gt;"", N13&lt;&gt;""), VLOOKUP(G13,Data!A:B,2,FALSE)+VLOOKUP(I13,Data!A:B,2,FALSE)+VLOOKUP(N13,Data!A:B,2,FALSE),"")</f>
+      <c r="B13" s="43" t="str" cm="1">
+        <f t="array" ref="B13">IF(AND(G13&lt;&gt;"", I13&lt;&gt;""),_xlfn.SWITCH(G13,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I13,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C13" s="3"/>
@@ -2052,8 +1803,8 @@
       <c r="A14" s="38">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="str">
-        <f>IF(AND(G14&lt;&gt;"", I14&lt;&gt;"", N14&lt;&gt;""), VLOOKUP(G14,Data!A:B,2,FALSE)+VLOOKUP(I14,Data!A:B,2,FALSE)+VLOOKUP(N14,Data!A:B,2,FALSE),"")</f>
+      <c r="B14" s="43" t="str" cm="1">
+        <f t="array" ref="B14">IF(AND(G14&lt;&gt;"", I14&lt;&gt;""),_xlfn.SWITCH(G14,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I14,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C14" s="3"/>
@@ -2078,8 +1829,8 @@
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="str">
-        <f>IF(AND(G15&lt;&gt;"", I15&lt;&gt;"", N15&lt;&gt;""), VLOOKUP(G15,Data!A:B,2,FALSE)+VLOOKUP(I15,Data!A:B,2,FALSE)+VLOOKUP(N15,Data!A:B,2,FALSE),"")</f>
+      <c r="B15" s="43" t="str" cm="1">
+        <f t="array" ref="B15">IF(AND(G15&lt;&gt;"", I15&lt;&gt;""),_xlfn.SWITCH(G15,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I15,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C15" s="3"/>
@@ -2104,8 +1855,8 @@
       <c r="A16" s="3">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="str">
-        <f>IF(AND(G16&lt;&gt;"", I16&lt;&gt;"", N16&lt;&gt;""), VLOOKUP(G16,Data!A:B,2,FALSE)+VLOOKUP(I16,Data!A:B,2,FALSE)+VLOOKUP(N16,Data!A:B,2,FALSE),"")</f>
+      <c r="B16" s="43" t="str" cm="1">
+        <f t="array" ref="B16">IF(AND(G16&lt;&gt;"", I16&lt;&gt;""),_xlfn.SWITCH(G16,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I16,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C16" s="3"/>
@@ -2130,8 +1881,8 @@
       <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="B17" s="3" t="str">
-        <f>IF(AND(G17&lt;&gt;"", I17&lt;&gt;"", N17&lt;&gt;""), VLOOKUP(G17,Data!A:B,2,FALSE)+VLOOKUP(I17,Data!A:B,2,FALSE)+VLOOKUP(N17,Data!A:B,2,FALSE),"")</f>
+      <c r="B17" s="43" t="str" cm="1">
+        <f t="array" ref="B17">IF(AND(G17&lt;&gt;"", I17&lt;&gt;""),_xlfn.SWITCH(G17,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I17,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C17" s="3"/>
@@ -2156,8 +1907,8 @@
       <c r="A18" s="3">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="str">
-        <f>IF(AND(G18&lt;&gt;"", I18&lt;&gt;"", N18&lt;&gt;""), VLOOKUP(G18,Data!A:B,2,FALSE)+VLOOKUP(I18,Data!A:B,2,FALSE)+VLOOKUP(N18,Data!A:B,2,FALSE),"")</f>
+      <c r="B18" s="43" t="str" cm="1">
+        <f t="array" ref="B18">IF(AND(G18&lt;&gt;"", I18&lt;&gt;""),_xlfn.SWITCH(G18,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I18,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C18" s="3"/>
@@ -2182,8 +1933,8 @@
       <c r="A19" s="3">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="str">
-        <f>IF(AND(G19&lt;&gt;"", I19&lt;&gt;"", N19&lt;&gt;""), VLOOKUP(G19,Data!A:B,2,FALSE)+VLOOKUP(I19,Data!A:B,2,FALSE)+VLOOKUP(N19,Data!A:B,2,FALSE),"")</f>
+      <c r="B19" s="43" t="str" cm="1">
+        <f t="array" ref="B19">IF(AND(G19&lt;&gt;"", I19&lt;&gt;""),_xlfn.SWITCH(G19,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I19,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C19" s="3"/>
@@ -2208,8 +1959,8 @@
       <c r="A20" s="3">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="str">
-        <f>IF(AND(G20&lt;&gt;"", I20&lt;&gt;"", N20&lt;&gt;""), VLOOKUP(G20,Data!A:B,2,FALSE)+VLOOKUP(I20,Data!A:B,2,FALSE)+VLOOKUP(N20,Data!A:B,2,FALSE),"")</f>
+      <c r="B20" s="43" t="str" cm="1">
+        <f t="array" ref="B20">IF(AND(G20&lt;&gt;"", I20&lt;&gt;""),_xlfn.SWITCH(G20,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I20,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C20" s="3"/>
@@ -2234,8 +1985,8 @@
       <c r="A21" s="3">
         <v>10</v>
       </c>
-      <c r="B21" s="3" t="str">
-        <f>IF(AND(G21&lt;&gt;"", I21&lt;&gt;"", N21&lt;&gt;""), VLOOKUP(G21,Data!A:B,2,FALSE)+VLOOKUP(I21,Data!A:B,2,FALSE)+VLOOKUP(N21,Data!A:B,2,FALSE),"")</f>
+      <c r="B21" s="43" t="str" cm="1">
+        <f t="array" ref="B21">IF(AND(G21&lt;&gt;"", I21&lt;&gt;""),_xlfn.SWITCH(G21,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I21,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C21" s="3"/>
@@ -2260,8 +2011,8 @@
       <c r="A22" s="3">
         <v>11</v>
       </c>
-      <c r="B22" s="3" t="str">
-        <f>IF(AND(G22&lt;&gt;"", I22&lt;&gt;"", N22&lt;&gt;""), VLOOKUP(G22,Data!A:B,2,FALSE)+VLOOKUP(I22,Data!A:B,2,FALSE)+VLOOKUP(N22,Data!A:B,2,FALSE),"")</f>
+      <c r="B22" s="43" t="str" cm="1">
+        <f t="array" ref="B22">IF(AND(G22&lt;&gt;"", I22&lt;&gt;""),_xlfn.SWITCH(G22,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I22,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C22" s="3"/>
@@ -2286,8 +2037,8 @@
       <c r="A23" s="3">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="str">
-        <f>IF(AND(G23&lt;&gt;"", I23&lt;&gt;"", N23&lt;&gt;""), VLOOKUP(G23,Data!A:B,2,FALSE)+VLOOKUP(I23,Data!A:B,2,FALSE)+VLOOKUP(N23,Data!A:B,2,FALSE),"")</f>
+      <c r="B23" s="43" t="str" cm="1">
+        <f t="array" ref="B23">IF(AND(G23&lt;&gt;"", I23&lt;&gt;""),_xlfn.SWITCH(G23,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I23,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C23" s="3"/>
@@ -2312,8 +2063,8 @@
       <c r="A24" s="3">
         <v>13</v>
       </c>
-      <c r="B24" s="3" t="str">
-        <f>IF(AND(G24&lt;&gt;"", I24&lt;&gt;"", N24&lt;&gt;""), VLOOKUP(G24,Data!A:B,2,FALSE)+VLOOKUP(I24,Data!A:B,2,FALSE)+VLOOKUP(N24,Data!A:B,2,FALSE),"")</f>
+      <c r="B24" s="43" t="str" cm="1">
+        <f t="array" ref="B24">IF(AND(G24&lt;&gt;"", I24&lt;&gt;""),_xlfn.SWITCH(G24,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I24,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C24" s="3"/>
@@ -2338,8 +2089,8 @@
       <c r="A25" s="3">
         <v>14</v>
       </c>
-      <c r="B25" s="3" t="str">
-        <f>IF(AND(G25&lt;&gt;"", I25&lt;&gt;"", N25&lt;&gt;""), VLOOKUP(G25,Data!A:B,2,FALSE)+VLOOKUP(I25,Data!A:B,2,FALSE)+VLOOKUP(N25,Data!A:B,2,FALSE),"")</f>
+      <c r="B25" s="43" t="str" cm="1">
+        <f t="array" ref="B25">IF(AND(G25&lt;&gt;"", I25&lt;&gt;""),_xlfn.SWITCH(G25,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I25,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C25" s="3"/>
@@ -2364,8 +2115,8 @@
       <c r="A26" s="3">
         <v>15</v>
       </c>
-      <c r="B26" s="3" t="str">
-        <f>IF(AND(G26&lt;&gt;"", I26&lt;&gt;"", N26&lt;&gt;""), VLOOKUP(G26,Data!A:B,2,FALSE)+VLOOKUP(I26,Data!A:B,2,FALSE)+VLOOKUP(N26,Data!A:B,2,FALSE),"")</f>
+      <c r="B26" s="43" t="str" cm="1">
+        <f t="array" ref="B26">IF(AND(G26&lt;&gt;"", I26&lt;&gt;""),_xlfn.SWITCH(G26,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I26,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C26" s="3"/>
@@ -2390,8 +2141,8 @@
       <c r="A27" s="3">
         <v>16</v>
       </c>
-      <c r="B27" s="3" t="str">
-        <f>IF(AND(G27&lt;&gt;"", I27&lt;&gt;"", N27&lt;&gt;""), VLOOKUP(G27,Data!A:B,2,FALSE)+VLOOKUP(I27,Data!A:B,2,FALSE)+VLOOKUP(N27,Data!A:B,2,FALSE),"")</f>
+      <c r="B27" s="43" t="str" cm="1">
+        <f t="array" ref="B27">IF(AND(G27&lt;&gt;"", I27&lt;&gt;""),_xlfn.SWITCH(G27,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I27,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C27" s="3"/>
@@ -2416,8 +2167,8 @@
       <c r="A28" s="3">
         <v>17</v>
       </c>
-      <c r="B28" s="3" t="str">
-        <f>IF(AND(G28&lt;&gt;"", I28&lt;&gt;"", N28&lt;&gt;""), VLOOKUP(G28,Data!A:B,2,FALSE)+VLOOKUP(I28,Data!A:B,2,FALSE)+VLOOKUP(N28,Data!A:B,2,FALSE),"")</f>
+      <c r="B28" s="43" t="str" cm="1">
+        <f t="array" ref="B28">IF(AND(G28&lt;&gt;"", I28&lt;&gt;""),_xlfn.SWITCH(G28,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I28,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C28" s="3"/>
@@ -2442,8 +2193,8 @@
       <c r="A29" s="3">
         <v>18</v>
       </c>
-      <c r="B29" s="3" t="str">
-        <f>IF(AND(G29&lt;&gt;"", I29&lt;&gt;"", N29&lt;&gt;""), VLOOKUP(G29,Data!A:B,2,FALSE)+VLOOKUP(I29,Data!A:B,2,FALSE)+VLOOKUP(N29,Data!A:B,2,FALSE),"")</f>
+      <c r="B29" s="43" t="str" cm="1">
+        <f t="array" ref="B29">IF(AND(G29&lt;&gt;"", I29&lt;&gt;""),_xlfn.SWITCH(G29,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I29,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C29" s="3"/>
@@ -2468,8 +2219,8 @@
       <c r="A30" s="3">
         <v>19</v>
       </c>
-      <c r="B30" s="3" t="str">
-        <f>IF(AND(G30&lt;&gt;"", I30&lt;&gt;"", N30&lt;&gt;""), VLOOKUP(G30,Data!A:B,2,FALSE)+VLOOKUP(I30,Data!A:B,2,FALSE)+VLOOKUP(N30,Data!A:B,2,FALSE),"")</f>
+      <c r="B30" s="43" t="str" cm="1">
+        <f t="array" ref="B30">IF(AND(G30&lt;&gt;"", I30&lt;&gt;""),_xlfn.SWITCH(G30,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I30,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C30" s="3"/>
@@ -2494,8 +2245,8 @@
       <c r="A31" s="3">
         <v>20</v>
       </c>
-      <c r="B31" s="3" t="str">
-        <f>IF(AND(G31&lt;&gt;"", I31&lt;&gt;"", N31&lt;&gt;""), VLOOKUP(G31,Data!A:B,2,FALSE)+VLOOKUP(I31,Data!A:B,2,FALSE)+VLOOKUP(N31,Data!A:B,2,FALSE),"")</f>
+      <c r="B31" s="43" t="str" cm="1">
+        <f t="array" ref="B31">IF(AND(G31&lt;&gt;"", I31&lt;&gt;""),_xlfn.SWITCH(G31,"低",1,"中",2,"高", 3) + _xlfn.SWITCH(I31,"低",1,"中",2,"高", 3),"")</f>
         <v/>
       </c>
       <c r="C31" s="3"/>
@@ -2530,44 +2281,4 @@
   <pageSetup paperSize="8" scale="37" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C056BD1B-8489-4D53-9D3E-37606554F1F0}">
-  <dimension ref="A2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>